--- a/API_living/params/testcase.xlsx
+++ b/API_living/params/testcase.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8020" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8020" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="getlist" sheetId="1" r:id="rId1"/>
     <sheet name="info" sheetId="5" r:id="rId2"/>
     <sheet name="updateChannel" sheetId="6" r:id="rId3"/>
+    <sheet name="startChannel" sheetId="7" r:id="rId4"/>
+    <sheet name="stopChannel" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="119">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -337,10 +338,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"channelId": "cd7f0f10bdad", "uid": "00000001", "transcodes":["360P","480P",”720P”,”1080P”] }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"channelId": "cd7f0f10bdad", "uid": "00000001", "pullUrl": "test"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -380,6 +377,111 @@
   </si>
   <si>
     <t>{"channelId": "cd7f0f10bdad", "uid": "00000001", "customData": "test"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始直播</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://%s/v1/application/%s/livestream/startChannel</t>
+  </si>
+  <si>
+    <t>http://%s/v1/application/%s/livestream/startChannel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"channelId": "cd7f0f10bdad", "uid": "00000002"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"channelId": "cd7f0f10bdad1", "uid": "00000001"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"channelId": "", "uid": "00000001"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "uid": "00000001"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>channel not exists, channelId:cd7f0f10bdad not in uid:00000002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>channel not exists, channelId:cd7f0f10bdad not in uid:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>channel no 'uid' field</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>channel not exists, channelId:cd7f0f10bdad1 not in uid:00000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>channel not exists, channelId: not in uid:00000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>channel no 'channelId' field</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"channelId": "cd7f0f10bdad", "uid": "00000001", "transcodes":["360P","480P","720P","1080P"] }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>success</t>
+  </si>
+  <si>
+    <t>channel: not in uid:00000002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>channel:cd7f0f10bdad00000000 not in uid:00000003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not channelId field</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>channel:cd7f0f10bdad not in uid:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>channel:cd7f0f10bdad not in uid:00000007000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not uid field</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>channel:汉字 not in uid:00000011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>channel:cd7f0f10bdad not in uid:汉字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the value of the 'watermarks' field must be a dictionary type, ex: {'text':['test1']}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>停止直播</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://%s/v1/application/%s/livestream/stopChannel</t>
+  </si>
+  <si>
+    <t>http://%s/v1/application/%s/livestream/stopChannel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -724,8 +826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1820,8 +1922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="G8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1836,7 +1938,7 @@
     <col min="8" max="8" width="7.36328125" customWidth="1"/>
     <col min="9" max="9" width="51.7265625" customWidth="1"/>
     <col min="10" max="10" width="63.26953125" customWidth="1"/>
-    <col min="11" max="11" width="28.08984375" customWidth="1"/>
+    <col min="11" max="11" width="45.90625" customWidth="1"/>
     <col min="12" max="12" width="12.6328125" customWidth="1"/>
     <col min="13" max="13" width="31" customWidth="1"/>
   </cols>
@@ -1952,7 +2054,7 @@
         <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>51</v>
+        <v>107</v>
       </c>
       <c r="M3" t="s">
         <v>9</v>
@@ -1990,7 +2092,7 @@
         <v>65</v>
       </c>
       <c r="K4" t="s">
-        <v>51</v>
+        <v>108</v>
       </c>
       <c r="M4" t="s">
         <v>9</v>
@@ -2028,7 +2130,7 @@
         <v>62</v>
       </c>
       <c r="K5" t="s">
-        <v>51</v>
+        <v>109</v>
       </c>
       <c r="M5" t="s">
         <v>9</v>
@@ -2104,7 +2206,7 @@
         <v>64</v>
       </c>
       <c r="K7" t="s">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="M7" t="s">
         <v>9</v>
@@ -2142,7 +2244,7 @@
         <v>66</v>
       </c>
       <c r="K8" t="s">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="M8" t="s">
         <v>9</v>
@@ -2180,7 +2282,7 @@
         <v>67</v>
       </c>
       <c r="K9" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="M9" t="s">
         <v>9</v>
@@ -2291,7 +2393,7 @@
         <v>69</v>
       </c>
       <c r="K12" t="s">
-        <v>51</v>
+        <v>113</v>
       </c>
       <c r="M12" t="s">
         <v>9</v>
@@ -2329,7 +2431,7 @@
         <v>70</v>
       </c>
       <c r="K13" t="s">
-        <v>51</v>
+        <v>114</v>
       </c>
       <c r="M13" t="s">
         <v>9</v>
@@ -2346,8 +2448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G7" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -2361,9 +2463,9 @@
     <col min="7" max="7" width="9" customWidth="1"/>
     <col min="8" max="8" width="7.36328125" customWidth="1"/>
     <col min="9" max="9" width="19.7265625" customWidth="1"/>
-    <col min="10" max="10" width="108.1796875" customWidth="1"/>
-    <col min="11" max="11" width="28.08984375" customWidth="1"/>
-    <col min="12" max="12" width="12.6328125" customWidth="1"/>
+    <col min="10" max="10" width="98.26953125" customWidth="1"/>
+    <col min="11" max="11" width="47.36328125" customWidth="1"/>
+    <col min="12" max="12" width="63" customWidth="1"/>
     <col min="13" max="13" width="31" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2475,7 +2577,7 @@
         <v>22</v>
       </c>
       <c r="J3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K3" t="s">
         <v>51</v>
@@ -2513,7 +2615,7 @@
         <v>22</v>
       </c>
       <c r="J4" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="K4" t="s">
         <v>51</v>
@@ -2551,7 +2653,7 @@
         <v>22</v>
       </c>
       <c r="J5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K5" t="s">
         <v>51</v>
@@ -2589,10 +2691,10 @@
         <v>22</v>
       </c>
       <c r="J6" t="s">
-        <v>84</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>71</v>
+        <v>83</v>
+      </c>
+      <c r="K6" t="s">
+        <v>51</v>
       </c>
       <c r="M6" t="s">
         <v>9</v>
@@ -2627,7 +2729,7 @@
         <v>22</v>
       </c>
       <c r="J7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K7" t="s">
         <v>51</v>
@@ -2665,10 +2767,10 @@
         <v>22</v>
       </c>
       <c r="J8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K8" t="s">
-        <v>51</v>
+        <v>115</v>
       </c>
       <c r="M8" t="s">
         <v>9</v>
@@ -2703,7 +2805,7 @@
         <v>22</v>
       </c>
       <c r="J9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K9" t="s">
         <v>51</v>
@@ -2741,7 +2843,7 @@
         <v>22</v>
       </c>
       <c r="J10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K10" t="s">
         <v>51</v>
@@ -2758,7 +2860,7 @@
         <v>77</v>
       </c>
       <c r="C11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>23</v>
@@ -2779,7 +2881,7 @@
         <v>17</v>
       </c>
       <c r="J11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K11" t="s">
         <v>51</v>
@@ -2796,7 +2898,7 @@
         <v>77</v>
       </c>
       <c r="C12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>23</v>
@@ -2817,7 +2919,7 @@
         <v>17</v>
       </c>
       <c r="J12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K12" t="s">
         <v>51</v>
@@ -2834,7 +2936,7 @@
         <v>77</v>
       </c>
       <c r="C13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>23</v>
@@ -2855,7 +2957,7 @@
         <v>17</v>
       </c>
       <c r="J13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K13" t="s">
         <v>51</v>
@@ -2872,7 +2974,7 @@
         <v>77</v>
       </c>
       <c r="C14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>23</v>
@@ -2893,7 +2995,7 @@
         <v>17</v>
       </c>
       <c r="J14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K14" t="s">
         <v>51</v>
@@ -2910,7 +3012,7 @@
         <v>77</v>
       </c>
       <c r="C15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>23</v>
@@ -2931,7 +3033,7 @@
         <v>17</v>
       </c>
       <c r="J15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K15" t="s">
         <v>51</v>
@@ -2948,7 +3050,7 @@
         <v>77</v>
       </c>
       <c r="C16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>23</v>
@@ -2969,7 +3071,7 @@
         <v>17</v>
       </c>
       <c r="J16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K16" t="s">
         <v>51</v>
@@ -3010,7 +3112,7 @@
         <v>79</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="M17" t="s">
         <v>9</v>
@@ -3089,6 +3191,819 @@
         <v>51</v>
       </c>
       <c r="M19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M10"/>
+  <sheetViews>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="G1" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="6.6328125" customWidth="1"/>
+    <col min="2" max="2" width="18.90625" customWidth="1"/>
+    <col min="3" max="3" width="14.1796875" customWidth="1"/>
+    <col min="5" max="5" width="14.26953125" customWidth="1"/>
+    <col min="6" max="6" width="50.1796875" customWidth="1"/>
+    <col min="9" max="9" width="11.36328125" customWidth="1"/>
+    <col min="10" max="10" width="71.90625" customWidth="1"/>
+    <col min="11" max="11" width="40" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>95</v>
+      </c>
+      <c r="K3" t="s">
+        <v>99</v>
+      </c>
+      <c r="M3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>100</v>
+      </c>
+      <c r="M4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" t="s">
+        <v>101</v>
+      </c>
+      <c r="M5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" t="s">
+        <v>96</v>
+      </c>
+      <c r="K6" t="s">
+        <v>102</v>
+      </c>
+      <c r="M6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K7" t="s">
+        <v>103</v>
+      </c>
+      <c r="M7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K8" t="s">
+        <v>104</v>
+      </c>
+      <c r="M8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="17" customHeight="1">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" t="s">
+        <v>53</v>
+      </c>
+      <c r="M9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" t="s">
+        <v>88</v>
+      </c>
+      <c r="K10" t="s">
+        <v>51</v>
+      </c>
+      <c r="M10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="6.6328125" customWidth="1"/>
+    <col min="2" max="2" width="18.90625" customWidth="1"/>
+    <col min="3" max="3" width="14.1796875" customWidth="1"/>
+    <col min="5" max="5" width="14.26953125" customWidth="1"/>
+    <col min="6" max="6" width="63.7265625" customWidth="1"/>
+    <col min="9" max="9" width="11.36328125" customWidth="1"/>
+    <col min="10" max="10" width="71.90625" customWidth="1"/>
+    <col min="11" max="11" width="40" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>95</v>
+      </c>
+      <c r="K3" t="s">
+        <v>99</v>
+      </c>
+      <c r="M3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>100</v>
+      </c>
+      <c r="M4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>117</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" t="s">
+        <v>101</v>
+      </c>
+      <c r="M5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" t="s">
+        <v>96</v>
+      </c>
+      <c r="K6" t="s">
+        <v>102</v>
+      </c>
+      <c r="M6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K7" t="s">
+        <v>103</v>
+      </c>
+      <c r="M7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s">
+        <v>117</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K8" t="s">
+        <v>104</v>
+      </c>
+      <c r="M8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="17" customHeight="1">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" t="s">
+        <v>117</v>
+      </c>
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" t="s">
+        <v>53</v>
+      </c>
+      <c r="M9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" t="s">
+        <v>117</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" t="s">
+        <v>88</v>
+      </c>
+      <c r="K10" t="s">
+        <v>51</v>
+      </c>
+      <c r="M10" t="s">
         <v>9</v>
       </c>
     </row>
